--- a/hi ho nn go/自己积累的/形容词变形.xlsx
+++ b/hi ho nn go/自己积累的/形容词变形.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-reprository\copyfile\hi ho nn go\自己积累的\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git-repository\CopyFile-master\hi ho nn go\自己积累的\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7A8F90-B2D8-4D27-B76F-63C754B6869D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7156AE02-BE88-43AE-8EEB-D45D3AEED80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5568" yWindow="240" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="イ类形容词" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>原形</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,6 +164,26 @@
   </si>
   <si>
     <t>寒くない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>優しかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤かった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可愛かった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美味しかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛かった</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,16 +515,16 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="L2" sqref="L2:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="20.625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="15.625" style="1" customWidth="1"/>
+    <col min="1" max="5" width="20.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="15.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,47 +541,62 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -569,7 +604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -577,7 +612,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -585,7 +620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -593,7 +628,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -601,7 +636,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -609,7 +644,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -617,7 +652,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -625,7 +660,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -633,7 +668,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -654,7 +689,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
